--- a/Creating group isolation-RR.xlsx
+++ b/Creating group isolation-RR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>מס' מזהה</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>עדכון פרטי האנשים אשר במערך שהתקבל - מי נדר להיות בבידוד, ומי מחלים</t>
+  </si>
+  <si>
+    <t>יצירת בידוד קבוצתי היא  פיצ'ר חדש שמטרתו לעזור למערכת לטפל בקבוצת אנשים שצריכים להיכנס לבידוד בעקבות חשיפה לנגיף הקורונה. לצורך כך המערכת מבקשת מהמשתמש את המיקום בו נחשף נגיף הקורונה, וכן את נקודת הזמן בו הוא נמצא, היא שולחת את הנתונים למערכת לאיכוני טלפונים ומקבלת משם מארך של כל האשים שהטלפון שלהם היה באותו מקום ובאותו זמן. המערכת מעדכנת 'מצב בידוד' עבור אותם אנשים.</t>
+  </si>
+  <si>
+    <t>הערכת אפיון:                                                                                                                                                                                                               מכיוון שמטרת הפיצ'ר היא לטפל במקרי בידוד של קבוצת אנשים, נראה כי הצורה בה נחשף נגיף הקורונה בזמן ובמקום מסוים לא רלוונטי, על כן, נראה כי פרטים אודות החולה אינם נחוצים לתפקוד התוכנה, ואמורים להיות מטופלים במקום אחר. על כן, להערכתי, כדאי לשנות את הערך 'תאריך חשיפה לנגיף הקורונה' לתאריך שבו שהה חולה הקורונה במיקום המסוים. כמו כן, נראה כי הערך 'תאריך החלמה מנגיף' אינו רלוונטי כלל, וכדאי להשמיטו. זאת מכיוון שלמרות שחולה הקורונה החלים, עדיין יכול להיות שהדביק אדם אחר אשר לא החלים עדיין, ובווודאי שזה לא פותר את האנשים שנחשפו אליו בזמן שהיה נגוע בנגיף מלהיכנס לבידוד. דבר נוסף, נראה כי ה route patch אמור לקבל את מערך האנשים אותם יש לעדכן ממערכת לאיכוני הטלפונים של ישראל, ולא מהמשתמש, כדאי לעשות זאת בפונקציה מסודרת על מנת לשמור על קריאות הקוד והמודולריות שלה.</t>
   </si>
 </sst>
 </file>
@@ -326,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -352,20 +358,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:J28"/>
+  <dimension ref="D3:N36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,9 +672,63 @@
     <col min="9" max="9" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="12"/>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="8" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="9"/>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
@@ -672,13 +738,13 @@
       <c r="H9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="5:10" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="12"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="4:14" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="9"/>
       <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
@@ -691,10 +757,10 @@
       <c r="I10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="12"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,30 +773,30 @@
       <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="5:10" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="12"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="4:14" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="9"/>
       <c r="F12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="9"/>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,13 +806,13 @@
       <c r="H14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>2</v>
       </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="5:10" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="12"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="4:14" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
@@ -759,10 +825,10 @@
       <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="12"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="9"/>
       <c r="F16" s="4" t="s">
         <v>2</v>
       </c>
@@ -775,30 +841,30 @@
       <c r="I16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="5:10" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="12"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="4:14" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="5:10" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="4:14" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="9"/>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,13 +874,13 @@
       <c r="H19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="10">
         <v>3</v>
       </c>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="5:10" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="12"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="4:14" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="9"/>
       <c r="F20" s="4" t="s">
         <v>3</v>
       </c>
@@ -827,10 +893,10 @@
       <c r="I20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E21" s="12"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="9"/>
       <c r="F21" s="4" t="s">
         <v>2</v>
       </c>
@@ -843,30 +909,30 @@
       <c r="I21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="5:10" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="12"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="4:14" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="5:10" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E24" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="4:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="9"/>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
@@ -876,13 +942,13 @@
       <c r="H24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="10">
         <v>4</v>
       </c>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="5:10" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="12"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="4:14" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="9"/>
       <c r="F25" s="4" t="s">
         <v>3</v>
       </c>
@@ -895,10 +961,10 @@
       <c r="I25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="12"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="9"/>
       <c r="F26" s="4" t="s">
         <v>2</v>
       </c>
@@ -911,30 +977,125 @@
       <c r="I26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="5:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E27" s="12"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="4:14" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="9"/>
       <c r="F27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="30" spans="4:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="D30:N36"/>
+    <mergeCell ref="D3:N6"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G22:I22"/>
